--- a/Baocaodoanhthu.xlsx
+++ b/Baocaodoanhthu.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Homeworks\forC#\Nhom11.NET\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Homeworks\forC#\Nhom11.NET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66EFCF99-F414-44CE-8A5D-E26AF7580B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="720" windowWidth="14400" windowHeight="7270" xr2:uid="{860013EF-10C5-4AED-AB85-5855D5FFAA6E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19785" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,9 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="64">
-  <si>
-    <t>BÁO CÁO DOANH THU</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+  <si>
+    <t>Báo Cáo Doanh Thu</t>
   </si>
   <si>
     <t>Mã hợp đồng</t>
@@ -60,170 +59,80 @@
     <t>Lại Khánh Linh</t>
   </si>
   <si>
-    <t>01/01/2024 12:00:00 SA</t>
-  </si>
-  <si>
-    <t>01/01/2023 12:00:00 SA</t>
-  </si>
-  <si>
-    <t>31/01/2024 12:00:00 SA</t>
-  </si>
-  <si>
     <t>HD02</t>
   </si>
   <si>
     <t>Tổ chức XYZ</t>
   </si>
   <si>
-    <t>02/01/2024 12:00:00 SA</t>
-  </si>
-  <si>
-    <t>01/12/2023 12:00:00 SA</t>
-  </si>
-  <si>
     <t>HD03</t>
   </si>
   <si>
     <t>Doanh nghiệp ABC</t>
   </si>
   <si>
-    <t>03/01/2024 12:00:00 SA</t>
-  </si>
-  <si>
-    <t>01/11/2023 12:00:00 SA</t>
-  </si>
-  <si>
     <t>HD04</t>
   </si>
   <si>
     <t>Công ty XYZ</t>
   </si>
   <si>
-    <t>04/01/2024 12:00:00 SA</t>
-  </si>
-  <si>
-    <t>01/02/2024 12:00:00 SA</t>
-  </si>
-  <si>
     <t>HD05</t>
   </si>
   <si>
     <t>Tổ chức LMN</t>
   </si>
   <si>
-    <t>05/01/2024 12:00:00 SA</t>
-  </si>
-  <si>
-    <t>02/02/2024 12:00:00 SA</t>
-  </si>
-  <si>
-    <t>28/02/2024 12:00:00 SA</t>
-  </si>
-  <si>
     <t>HD06</t>
   </si>
   <si>
     <t>Doanh nghiệp GHI</t>
   </si>
   <si>
-    <t>06/01/2024 12:00:00 SA</t>
-  </si>
-  <si>
-    <t>02/03/2024 12:00:00 SA</t>
-  </si>
-  <si>
     <t>HD07</t>
   </si>
   <si>
     <t>Công ty MNO</t>
   </si>
   <si>
-    <t>07/01/2024 12:00:00 SA</t>
-  </si>
-  <si>
-    <t>31/03/2024 12:00:00 SA</t>
-  </si>
-  <si>
     <t>HD08</t>
   </si>
   <si>
     <t>Tổ chức PQR</t>
   </si>
   <si>
-    <t>08/01/2024 12:00:00 SA</t>
-  </si>
-  <si>
     <t>HD09</t>
   </si>
   <si>
     <t>Doanh nghiệp UVWW</t>
   </si>
   <si>
-    <t>09/01/2024 12:00:00 SA</t>
-  </si>
-  <si>
-    <t>01/03/2024 12:00:00 SA</t>
-  </si>
-  <si>
     <t>HD10</t>
   </si>
   <si>
     <t>Công ty STU</t>
   </si>
   <si>
-    <t>10/01/2024 12:00:00 SA</t>
-  </si>
-  <si>
-    <t>01/04/2024 12:00:00 SA</t>
-  </si>
-  <si>
     <t>HD11</t>
   </si>
   <si>
-    <t>11/01/2024 12:00:00 SA</t>
-  </si>
-  <si>
-    <t>01/05/2024 12:00:00 SA</t>
-  </si>
-  <si>
     <t>HD12</t>
   </si>
   <si>
-    <t>12/01/2024 12:00:00 SA</t>
-  </si>
-  <si>
-    <t>07/06/2024 12:00:00 SA</t>
-  </si>
-  <si>
     <t>HD13</t>
   </si>
   <si>
-    <t>13/01/2024 12:00:00 SA</t>
-  </si>
-  <si>
-    <t>04/04/2024 12:00:00 SA</t>
-  </si>
-  <si>
-    <t>20/09/2024 12:00:00 SA</t>
-  </si>
-  <si>
     <t>HD14</t>
   </si>
   <si>
-    <t>14/01/2024 12:00:00 SA</t>
-  </si>
-  <si>
-    <t>10/04/2024 12:00:00 SA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tổng doanh thu: </t>
+    <t xml:space="preserve">Tổng tiền: </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,13 +141,35 @@
       <charset val="163"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD3D3D3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -259,9 +190,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -296,7 +232,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -308,7 +244,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -325,9 +261,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -355,31 +291,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -407,23 +326,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -575,377 +477,392 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48BEA1A2-F649-4388-B340-F5D6C39CE087}">
-  <dimension ref="A1:P15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.4140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.4140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="20.4140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3">
+        <v>45292</v>
+      </c>
+      <c r="E3" s="3">
+        <v>44927</v>
+      </c>
+      <c r="F3" s="3">
+        <v>45322</v>
+      </c>
+      <c r="G3">
+        <v>19750000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3">
+        <v>45293</v>
+      </c>
+      <c r="E4" s="3">
+        <v>45261</v>
+      </c>
+      <c r="F4" s="3">
+        <v>45292</v>
+      </c>
+      <c r="G4">
+        <v>1705000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="H2">
-        <v>19750000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3">
+        <v>45294</v>
+      </c>
+      <c r="E5" s="3">
+        <v>45231</v>
+      </c>
+      <c r="F5" s="3">
+        <v>45261</v>
+      </c>
+      <c r="G5">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3">
+        <v>45295</v>
+      </c>
+      <c r="E6" s="3">
+        <v>45292</v>
+      </c>
+      <c r="F6" s="3">
+        <v>45323</v>
+      </c>
+      <c r="G6">
+        <v>930000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3">
-        <v>1705000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3">
+        <v>45296</v>
+      </c>
+      <c r="E7" s="3">
+        <v>45324</v>
+      </c>
+      <c r="F7" s="3">
+        <v>45350</v>
+      </c>
+      <c r="G7">
+        <v>910000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="F4" t="s">
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="3">
+        <v>45297</v>
+      </c>
+      <c r="E8" s="3">
+        <v>45324</v>
+      </c>
+      <c r="F8" s="3">
+        <v>45353</v>
+      </c>
+      <c r="G8">
+        <v>1015000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>21</v>
       </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4">
-        <v>900000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+      <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3">
+        <v>45298</v>
+      </c>
+      <c r="E9" s="3">
+        <v>45292</v>
+      </c>
+      <c r="F9" s="3">
+        <v>45382</v>
+      </c>
+      <c r="G9">
+        <v>3600000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="B10" t="s">
         <v>24</v>
       </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="3">
+        <v>45299</v>
+      </c>
+      <c r="E10" s="3">
+        <v>45292</v>
+      </c>
+      <c r="F10" s="3">
+        <v>45322</v>
+      </c>
+      <c r="G10">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>25</v>
       </c>
-      <c r="H5">
-        <v>930000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+      <c r="B11" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3">
+        <v>45300</v>
+      </c>
+      <c r="E11" s="3">
+        <v>45352</v>
+      </c>
+      <c r="F11" s="3">
+        <v>45382</v>
+      </c>
+      <c r="G11">
+        <v>1350000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="B12" t="s">
         <v>28</v>
       </c>
-      <c r="F6" t="s">
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="3">
+        <v>45301</v>
+      </c>
+      <c r="E12" s="3">
+        <v>45352</v>
+      </c>
+      <c r="F12" s="3">
+        <v>45383</v>
+      </c>
+      <c r="G12">
+        <v>1395000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>29</v>
       </c>
-      <c r="G6" t="s">
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3">
+        <v>45302</v>
+      </c>
+      <c r="E13" s="3">
+        <v>45383</v>
+      </c>
+      <c r="F13" s="3">
+        <v>45413</v>
+      </c>
+      <c r="G13">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>30</v>
       </c>
-      <c r="H6">
-        <v>910000</v>
-      </c>
-      <c r="P6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="3">
+        <v>45303</v>
+      </c>
+      <c r="E14" s="3">
+        <v>45413</v>
+      </c>
+      <c r="F14" s="3">
+        <v>45450</v>
+      </c>
+      <c r="G14">
+        <v>1850000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>31</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="3">
+        <v>45304</v>
+      </c>
+      <c r="E15" s="3">
+        <v>45386</v>
+      </c>
+      <c r="F15" s="3">
+        <v>45555</v>
+      </c>
+      <c r="G15">
+        <v>8450000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>32</v>
       </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="3">
+        <v>45305</v>
+      </c>
+      <c r="E16" s="3">
+        <v>45383</v>
+      </c>
+      <c r="F16" s="3">
+        <v>45392</v>
+      </c>
+      <c r="G16">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="F17" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7">
-        <v>1015000</v>
-      </c>
-      <c r="P7">
+      <c r="G17" s="4">
+        <f>SUM(G3:G16)</f>
         <v>45005000</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8">
-        <v>3600000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9">
-        <v>1200000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10">
-        <v>1350000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11">
-        <v>1395000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" t="s">
-        <v>55</v>
-      </c>
-      <c r="H13">
-        <v>1850000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14" t="s">
-        <v>59</v>
-      </c>
-      <c r="H14">
-        <v>8450000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" t="s">
-        <v>62</v>
-      </c>
-      <c r="H15">
-        <v>450000</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>